--- a/data/trans_bre/P1_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1_R-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 5,88</t>
+          <t>-2,51; 5,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 7,14</t>
+          <t>-3,1; 6,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,58; -1,0</t>
+          <t>-12,58; -0,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 3,53</t>
+          <t>-5,17; 3,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-24,19; 96,52</t>
+          <t>-27,95; 84,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-25,74; 75,72</t>
+          <t>-26,25; 70,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-53,12; -6,73</t>
+          <t>-53,02; -3,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-24,57; 24,87</t>
+          <t>-26,71; 24,47</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,68; -0,01</t>
+          <t>-9,69; -0,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 3,35</t>
+          <t>-5,46; 3,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 7,61</t>
+          <t>-2,32; 7,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 0,07</t>
+          <t>-9,14; 0,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-63,0; 0,99</t>
+          <t>-63,09; -2,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-47,38; 50,24</t>
+          <t>-49,43; 51,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-15,46; 92,06</t>
+          <t>-20,71; 89,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-43,48; 0,45</t>
+          <t>-42,64; 1,2</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 5,37</t>
+          <t>-2,53; 6,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 8,25</t>
+          <t>-0,97; 8,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 13,21</t>
+          <t>-0,44; 13,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 19,41</t>
+          <t>0,34; 21,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-48,88; 125,1</t>
+          <t>-41,57; 157,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 143,97</t>
+          <t>-12,38; 131,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 143,0</t>
+          <t>-6,64; 146,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 403,41</t>
+          <t>0,36; 432,55</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 2,93</t>
+          <t>-1,92; 3,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,63; -0,63</t>
+          <t>-5,81; -0,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 5,39</t>
+          <t>-0,43; 5,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,72; -3,29</t>
+          <t>-14,18; -3,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-23,75; 49,34</t>
+          <t>-23,2; 56,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-56,82; -6,9</t>
+          <t>-57,26; -9,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 58,22</t>
+          <t>-4,28; 61,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-68,7; -17,79</t>
+          <t>-70,01; -18,35</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 2,17</t>
+          <t>-6,36; 1,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 5,9</t>
+          <t>-0,85; 5,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,26; -0,04</t>
+          <t>-7,19; 0,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 0,89</t>
+          <t>-10,73; 0,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-47,3; 29,34</t>
+          <t>-48,16; 24,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 99,66</t>
+          <t>-8,75; 97,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-43,2; 0,04</t>
+          <t>-43,17; 2,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-40,67; 2,47</t>
+          <t>-42,1; 1,39</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,19; 10,39</t>
+          <t>5,3; 10,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,26; 12,1</t>
+          <t>6,42; 12,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,96; 9,14</t>
+          <t>1,26; 9,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,72; 19,43</t>
+          <t>6,85; 19,61</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>102,47; 1024,77</t>
+          <t>106,13; 894,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>108,53; 1032,66</t>
+          <t>115,88; 913,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,94; 152,7</t>
+          <t>10,79; 169,37</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>32,32; 989,5</t>
+          <t>26,72; 1063,06</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,18; 2,78</t>
+          <t>0,06; 2,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,2; 3,22</t>
+          <t>0,26; 3,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 2,3</t>
+          <t>-0,9; 2,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 3,16</t>
+          <t>-3,52; 3,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,15; 41,74</t>
+          <t>0,97; 42,35</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,1; 42,49</t>
+          <t>2,83; 41,9</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 20,12</t>
+          <t>-6,65; 20,95</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-18,69; 20,83</t>
+          <t>-19,11; 22,9</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P1_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1_R-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
